--- a/DATA_goal/Junction_Flooding_363.xlsx
+++ b/DATA_goal/Junction_Flooding_363.xlsx
@@ -450,21 +450,21 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -655,103 +655,103 @@
         <v>38217.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.18</v>
+        <v>11.84</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.26</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.08</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.35</v>
       </c>
       <c r="Q2" s="4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="R2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.85</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.7</v>
+        <v>6.99</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.92</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>38217.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.33</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.57</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.17</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.32</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.67</v>
+        <v>26.71</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.45</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.66</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.48</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.53</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.29</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>38217.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.49</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.63</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.36</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.77</v>
+        <v>17.74</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.92</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.71</v>
+        <v>27.05</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.31</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.26</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.09</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.58</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.16</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.65</v>
+        <v>6.5</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.26</v>
+        <v>112.59</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.19</v>
+        <v>21.93</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.08</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.26</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.44</v>
+        <v>24.39</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>38217.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.15</v>
+        <v>21.53</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.78</v>
+        <v>17.81</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.93</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.04</v>
+        <v>30.4</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.23</v>
+        <v>12.3</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.16</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.15</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.24</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>11.27</v>
+        <v>112.68</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.21</v>
+        <v>22.09</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.64</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.01</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.44</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.77</v>
+        <v>27.72</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.32</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.949999999999999</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_363.xlsx
+++ b/DATA_goal/Junction_Flooding_363.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>38217.00694444445</v>
+        <v>45044.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.58</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.11</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>11.55</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.39</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.91</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>11.84</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.5</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.65</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.26</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.66</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.08</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.31</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.28</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.35</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.75</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>66.34</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>13.25</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.22</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.56</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>5.69</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.84</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.85</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.2</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.53</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.99</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>9.92</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.26</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>38217.01388888889</v>
+        <v>45044.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.01</v>
+        <v>20.388</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.28</v>
+        <v>14.533</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.481</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.33</v>
+        <v>40.466</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.64</v>
+        <v>34.136</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.25</v>
+        <v>15.603</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.15</v>
+        <v>51.591</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.57</v>
+        <v>22.572</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.83</v>
+        <v>10.373</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.98</v>
+        <v>16.498</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.17</v>
+        <v>16.371</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.32</v>
+        <v>17.046</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.55</v>
+        <v>4.844</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.84</v>
+        <v>14.532</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.09</v>
+        <v>21.861</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.79</v>
+        <v>12.194</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.533</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.474</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.71</v>
+        <v>221.152</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.45</v>
+        <v>41.875</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.88</v>
+        <v>14.215</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.76</v>
+        <v>28.576</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.66</v>
+        <v>14.582</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.972</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.6</v>
+        <v>26.371</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.8</v>
+        <v>12.17</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.48</v>
+        <v>10.413</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.53</v>
+        <v>12.358</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.29</v>
+        <v>18.238</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.58</v>
+        <v>46.087</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.52</v>
+        <v>7.62</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.28</v>
+        <v>17.006</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>38217.02083333334</v>
+        <v>45044.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.49</v>
+        <v>25.239</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.63</v>
+        <v>18.517</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.679</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.36</v>
+        <v>52.414</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.74</v>
+        <v>43.813</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.92</v>
+        <v>19.638</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.05</v>
+        <v>74.30800000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.31</v>
+        <v>29.178</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.62</v>
+        <v>13.306</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>20.459</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.26</v>
+        <v>21.163</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.09</v>
+        <v>22.132</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.39</v>
+        <v>6.165</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.58</v>
+        <v>18.845</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.16</v>
+        <v>27.747</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.5</v>
+        <v>15.694</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.495</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.21</v>
+        <v>0.63</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>112.59</v>
+        <v>284.29</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>21.93</v>
+        <v>53.615</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.13</v>
+        <v>17.921</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.41</v>
+        <v>36.418</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.08</v>
+        <v>18.829</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.99</v>
+        <v>2.514</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.26</v>
+        <v>36.494</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.42</v>
+        <v>15.593</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.25</v>
+        <v>13.485</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.07</v>
+        <v>15.939</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.69</v>
+        <v>22.906</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.39</v>
+        <v>67.23099999999999</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.38</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>21.898</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>38217.02777777778</v>
+        <v>45044.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>14.47</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.61</v>
+        <v>10.57</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.53</v>
+        <v>29.64</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.81</v>
+        <v>24.88</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.93</v>
+        <v>11.25</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.4</v>
+        <v>46.03</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.3</v>
+        <v>16.49</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.6</v>
+        <v>7.58</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>11.72</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.16</v>
+        <v>12.02</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.15</v>
+        <v>12.48</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.42</v>
+        <v>3.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.64</v>
+        <v>10.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.24</v>
+        <v>15.88</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.52</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.68</v>
+        <v>158.46</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.09</v>
+        <v>30.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.16</v>
+        <v>10.23</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.64</v>
+        <v>20.77</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>10.67</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.44</v>
+        <v>21.96</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.43</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.11</v>
+        <v>7.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.97</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.59</v>
+        <v>13.11</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.72</v>
+        <v>41.63</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.32</v>
+        <v>5.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.949999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>38217.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.26</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>66.94</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.21</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.51</v>
+        <v>12.41</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_363.xlsx
+++ b/DATA_goal/Junction_Flooding_363.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45044.50694444445</v>
+        <v>38217.00694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.237</v>
+        <v>4.576</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.607</v>
+        <v>5.111</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.478</v>
+        <v>11.554</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.053</v>
+        <v>10.389</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.519</v>
+        <v>4.907</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.488</v>
+        <v>11.844</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.554</v>
+        <v>7.502</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>3.653</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.022</v>
+        <v>6.261</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.069</v>
+        <v>6.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9379999999999999</v>
+        <v>5.084</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6929999999999999</v>
+        <v>1.314</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>4.277</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.749</v>
+        <v>6.354</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.106</v>
+        <v>3.754</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.401</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.063</v>
+        <v>0.139</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.094</v>
+        <v>66.34</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.803</v>
+        <v>13.251</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.372</v>
+        <v>4.22</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.891</v>
+        <v>7.561</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.034</v>
+        <v>5.692</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.249</v>
+        <v>0.381</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>7.84</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.154</v>
+        <v>3.854</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.674</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>5.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.129</v>
+        <v>6.991</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.866</v>
+        <v>0.237</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.128</v>
+        <v>9.923999999999999</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.446</v>
+        <v>3.256</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>4.997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45044.51388888889</v>
+        <v>38217.01388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>20.388</v>
+        <v>2.009</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>14.533</v>
+        <v>2.28</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.481</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>40.466</v>
+        <v>5.327</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>34.136</v>
+        <v>4.643</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>15.603</v>
+        <v>2.245</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>51.591</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.572</v>
+        <v>3.569</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>10.373</v>
+        <v>1.825</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>16.498</v>
+        <v>2.984</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.371</v>
+        <v>3.169</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.046</v>
+        <v>2.315</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.844</v>
+        <v>0.554</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.532</v>
+        <v>1.838</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>21.861</v>
+        <v>3.089</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.194</v>
+        <v>1.789</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.533</v>
+        <v>0.238</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.474</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>221.152</v>
+        <v>26.711</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>41.875</v>
+        <v>6.446</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>14.215</v>
+        <v>1.88</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>28.576</v>
+        <v>3.758</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.582</v>
+        <v>2.663</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.972</v>
+        <v>0.203</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>26.371</v>
+        <v>5.603</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.17</v>
+        <v>1.804</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.413</v>
+        <v>2.479</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.358</v>
+        <v>2.531</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>18.238</v>
+        <v>3.293</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.133</v>
+        <v>0.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>46.087</v>
+        <v>8.584</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.62</v>
+        <v>1.525</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>17.006</v>
+        <v>2.279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45044.52083333334</v>
+        <v>38217.02083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>25.239</v>
+        <v>9.489000000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>18.517</v>
+        <v>7.631</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.679</v>
+        <v>0.221</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>52.414</v>
+        <v>21.361</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>43.813</v>
+        <v>17.736</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>19.638</v>
+        <v>7.922</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>74.30800000000001</v>
+        <v>27.053</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>29.178</v>
+        <v>12.308</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>13.306</v>
+        <v>5.616</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>20.459</v>
+        <v>8.638999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>21.163</v>
+        <v>9.259</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>22.132</v>
+        <v>9.089</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.165</v>
+        <v>2.392</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.845</v>
+        <v>7.577</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>27.747</v>
+        <v>11.16</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.694</v>
+        <v>6.503</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.495</v>
+        <v>0.246</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.206</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>284.29</v>
+        <v>112.595</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>53.615</v>
+        <v>21.932</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.921</v>
+        <v>7.133</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>36.418</v>
+        <v>14.408</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.829</v>
+        <v>8.077999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.514</v>
+        <v>0.987</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>36.494</v>
+        <v>14.265</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.593</v>
+        <v>6.421</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.485</v>
+        <v>6.245</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.939</v>
+        <v>7.072</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>22.906</v>
+        <v>9.695</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.716</v>
+        <v>0.158</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>67.23099999999999</v>
+        <v>24.393</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>4.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.898</v>
+        <v>8.891999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45044.52777777778</v>
+        <v>38217.02777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.47</v>
+        <v>9.631</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.57</v>
+        <v>7.607</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.231</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>29.64</v>
+        <v>21.526</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.88</v>
+        <v>17.813</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.25</v>
+        <v>7.927</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>46.03</v>
+        <v>30.396</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.49</v>
+        <v>12.303</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.58</v>
+        <v>5.6</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.72</v>
+        <v>8.535</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.02</v>
+        <v>9.154999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.48</v>
+        <v>9.147</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.51</v>
+        <v>2.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.66</v>
+        <v>7.639</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.88</v>
+        <v>11.238</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>6.519</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.214</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.212</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>158.46</v>
+        <v>112.679</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.58</v>
+        <v>22.085</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.23</v>
+        <v>7.162</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.77</v>
+        <v>14.636</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.67</v>
+        <v>8.029</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.43</v>
+        <v>1.006</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.96</v>
+        <v>15.444</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>6.428</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.63</v>
+        <v>6.106</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>6.969</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.11</v>
+        <v>9.587</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.129</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.63</v>
+        <v>27.722</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.58</v>
+        <v>4.324</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.41</v>
+        <v>8.946999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>38217.03472222222</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>66.94</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.51</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_363.xlsx
+++ b/DATA_goal/Junction_Flooding_363.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>38217.00694444445</v>
+        <v>45044.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.576</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.111</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>11.554</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.389</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.907</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>11.844</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>7.502</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.653</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.261</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.656</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.084</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.314</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>4.277</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.354</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.754</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.401</v>
+        <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.139</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>66.34</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>13.251</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.22</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.561</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>5.692</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.381</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.84</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.854</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.2</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.528</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.991</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.237</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>9.923999999999999</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.256</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.997</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>38217.01388888889</v>
+        <v>45044.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.009</v>
+        <v>20.388</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.28</v>
+        <v>14.533</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.481</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.327</v>
+        <v>40.466</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.643</v>
+        <v>34.136</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.245</v>
+        <v>15.603</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.151999999999999</v>
+        <v>51.591</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3.569</v>
+        <v>22.572</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.825</v>
+        <v>10.373</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.984</v>
+        <v>16.498</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.169</v>
+        <v>16.371</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.315</v>
+        <v>17.046</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.554</v>
+        <v>4.844</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.838</v>
+        <v>14.532</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.089</v>
+        <v>21.861</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.789</v>
+        <v>12.194</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.238</v>
+        <v>0.533</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.474</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.711</v>
+        <v>221.152</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.446</v>
+        <v>41.875</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.88</v>
+        <v>14.215</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.758</v>
+        <v>28.576</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.663</v>
+        <v>14.582</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.203</v>
+        <v>1.972</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>5.603</v>
+        <v>26.371</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.804</v>
+        <v>12.17</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.479</v>
+        <v>10.413</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.531</v>
+        <v>12.358</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.293</v>
+        <v>18.238</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.584</v>
+        <v>46.087</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.525</v>
+        <v>7.62</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.279</v>
+        <v>17.006</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>38217.02083333334</v>
+        <v>45044.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.489000000000001</v>
+        <v>25.239</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.631</v>
+        <v>18.517</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.221</v>
+        <v>0.679</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.361</v>
+        <v>52.414</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.736</v>
+        <v>43.813</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.922</v>
+        <v>19.638</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>27.053</v>
+        <v>74.30800000000001</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.308</v>
+        <v>29.178</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.616</v>
+        <v>13.306</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.638999999999999</v>
+        <v>20.459</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>9.259</v>
+        <v>21.163</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.089</v>
+        <v>22.132</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.392</v>
+        <v>6.165</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.577</v>
+        <v>18.845</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.16</v>
+        <v>27.747</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.503</v>
+        <v>15.694</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.246</v>
+        <v>0.495</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.206</v>
+        <v>0.63</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>112.595</v>
+        <v>284.29</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>21.932</v>
+        <v>53.615</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.133</v>
+        <v>17.921</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.408</v>
+        <v>36.418</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.077999999999999</v>
+        <v>18.829</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.987</v>
+        <v>2.514</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>14.265</v>
+        <v>36.494</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.421</v>
+        <v>15.593</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.245</v>
+        <v>13.485</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>7.072</v>
+        <v>15.939</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.695</v>
+        <v>22.906</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.158</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>24.393</v>
+        <v>67.23099999999999</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.38</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.891999999999999</v>
+        <v>21.898</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>38217.02777777778</v>
+        <v>45044.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.631</v>
+        <v>14.47</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>7.607</v>
+        <v>10.57</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.231</v>
+        <v>0.35</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>21.526</v>
+        <v>29.64</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>17.813</v>
+        <v>24.88</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.927</v>
+        <v>11.25</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>30.396</v>
+        <v>46.03</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>12.303</v>
+        <v>16.49</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.6</v>
+        <v>7.58</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.535</v>
+        <v>11.72</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>9.154999999999999</v>
+        <v>12.02</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>9.147</v>
+        <v>12.48</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.42</v>
+        <v>3.51</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.639</v>
+        <v>10.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>11.238</v>
+        <v>15.88</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.519</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.214</v>
+        <v>0.35</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.212</v>
+        <v>0.33</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>112.679</v>
+        <v>158.46</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>22.085</v>
+        <v>30.58</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>7.162</v>
+        <v>10.23</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.636</v>
+        <v>20.77</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.029</v>
+        <v>10.67</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.006</v>
+        <v>1.43</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.444</v>
+        <v>21.96</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.428</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.106</v>
+        <v>7.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.969</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>9.587</v>
+        <v>13.11</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.129</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>27.722</v>
+        <v>41.63</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.324</v>
+        <v>5.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.946999999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>38217.03472222222</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.26</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>66.94</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>10.43</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>19.21</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.51</v>
+        <v>12.41</v>
       </c>
     </row>
   </sheetData>
